--- a/examples/sources/data/unsolved/to_schedule/2019-01-24.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-01-24.xlsx
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>43489</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>43489</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3665,7 +3665,7 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" s="2">
         <v>43489</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>1</v>
